--- a/biology/Zoologie/Coleophora_anatipennella/Coleophora_anatipennella.xlsx
+++ b/biology/Zoologie/Coleophora_anatipennella/Coleophora_anatipennella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Coleophora anatipennella est un insecte lépidoptère de la famille des Coleophoridae. C'est l'espèce type du genre Coleophora et de sa famille[1].
-Il est supposé que  la description de J.F.A. Goeze, en  1783, pour C. bernoulliella correspond en réalité à C. anatipennella[1].
+Coleophora anatipennella est un insecte lépidoptère de la famille des Coleophoridae. C'est l'espèce type du genre Coleophora et de sa famille.
+Il est supposé que  la description de J.F.A. Goeze, en  1783, pour C. bernoulliella correspond en réalité à C. anatipennella.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Synonymes[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Coleophora anatipenella (lapsus)
 Coleophora tiliella Zeller, 1849
@@ -553,10 +567,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C. anatipennella se rencontre en Europe, à l'est de l'Oural ; au sud-est, son habitat s'étend à l'Asie Mineure jusqu'à l'Iran[1]. Il a été rencontré aussi au Japon.
-La chenille se nourrit principalement de feuilles de Rosaceae et de Fagales mais aussi de beaucoup d'autres [1] :  
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C. anatipennella se rencontre en Europe, à l'est de l'Oural ; au sud-est, son habitat s'étend à l'Asie Mineure jusqu'à l'Iran. Il a été rencontré aussi au Japon.
+La chenille se nourrit principalement de feuilles de Rosaceae et de Fagales mais aussi de beaucoup d'autres  :  
 eurosidées I: Rosales: Rosaceae ;
 Crataegus (Aubépine) ;
 Malus domestica (pommier), et d'autres espèces du genre Malus ;
@@ -577,7 +593,7 @@
 Tilia (Tilleul) ;
 Basal astéridées: Cornales: Cornaceae ;
 Cornus sanguinea (Cornouiller sanguin).
-Avant d'hiverner, la chenille creuse d'étroites galeries. Après hibernation, elle continue à se nourrir en créant des ouvertures. Au stade suivant, la larve vit dans un cocon noir luisant de 7 mm environ, en forme de pistolet avec un angle de 70°-80°[2].
+Avant d'hiverner, la chenille creuse d'étroites galeries. Après hibernation, elle continue à se nourrir en créant des ouvertures. Au stade suivant, la larve vit dans un cocon noir luisant de 7 mm environ, en forme de pistolet avec un angle de 70°-80°.
 </t>
         </is>
       </c>
